--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -149,23 +149,10 @@
     <t>Team roster</t>
   </si>
   <si>
-    <t>Add support for other 
-sound file formats</t>
-  </si>
-  <si>
-    <t>Find libraries and methods for implementation</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Implement conversion</t>
-  </si>
-  <si>
     <t>To do</t>
-  </si>
-  <si>
-    <t>Retest and review</t>
   </si>
   <si>
     <t>Problems with cursor 
@@ -403,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -423,6 +410,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,18 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -463,10 +444,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -475,7 +456,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="13">
     <dxf>
       <font>
         <color theme="0"/>
@@ -485,81 +466,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -626,6 +532,16 @@
         <color theme="7" tint="-0.24994659260841701"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -685,6 +601,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -731,7 +648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint!$E$15</c:f>
+              <c:f>Sprint!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -810,51 +727,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint!$F$15:$T$15</c:f>
+              <c:f>Sprint!$F$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2857142857142865</c:v>
+                  <c:v>4.6428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.571428571428573</c:v>
+                  <c:v>4.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8571428571428585</c:v>
+                  <c:v>3.9285714285714293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1428571428571441</c:v>
+                  <c:v>3.5714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4285714285714297</c:v>
+                  <c:v>3.2142857142857149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7142857142857153</c:v>
+                  <c:v>2.8571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000009</c:v>
+                  <c:v>2.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2857142857142865</c:v>
+                  <c:v>2.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5714285714285721</c:v>
+                  <c:v>1.785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8571428571428577</c:v>
+                  <c:v>1.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1428571428571432</c:v>
+                  <c:v>1.0714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4285714285714288</c:v>
+                  <c:v>0.71428571428571441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71428571428571452</c:v>
+                  <c:v>0.35714285714285726</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -874,7 +791,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint!$E$16</c:f>
+              <c:f>Sprint!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,54 +870,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint!$F$16:$T$16</c:f>
+              <c:f>Sprint!$F$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,11 +938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="486810208"/>
-        <c:axId val="486816088"/>
+        <c:axId val="302741968"/>
+        <c:axId val="302743144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="486810208"/>
+        <c:axId val="302741968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486816088"/>
+        <c:crossAx val="302743144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486816088"/>
+        <c:axId val="302743144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,6 +1098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1239,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486810208"/>
+        <c:crossAx val="302741968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1902,7 +1820,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,21 +2183,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2288,10 +2206,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2300,10 +2218,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2312,10 +2230,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2334,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,541 +2355,453 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="26">
-        <v>8</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
+        <f t="shared" ref="U5:U10" si="0">E5-SUM(G5:T5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27">
-        <f>E5-SUM(G5:T5)</f>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="27">
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27">
-        <f t="shared" ref="U6:U7" si="0">E6-SUM(G6:T6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="27" t="s">
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="27">
-        <v>2</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B5:B10)</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="2">
+        <f>SUM(E5:E10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="2">
+        <f>SUM(G5:G10)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27">
-        <f t="shared" ref="U8:U13" si="1">E8-SUM(G8:T8)</f>
+      <c r="H11" s="2">
+        <f>SUM(H5:H10)</f>
         <v>0</v>
       </c>
+      <c r="I11" s="2">
+        <f>SUM(I5:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f>SUM(J5:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f>SUM(K5:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f>SUM(L5:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f>SUM(M5:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f>SUM(N5:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f>SUM(O5:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <f>SUM(P5:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>SUM(Q5:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <f>SUM(R5:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f>SUM(S5:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <f>SUM(T5:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" ref="U11" si="1">E11-SUM(G11:T11)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <f>SUM(E5:E10)</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="17">
+        <f>F12-F12/14</f>
+        <v>4.6428571428571432</v>
+      </c>
+      <c r="H12" s="17">
+        <f>G12-F12/14</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="I12" s="17">
+        <f>H12-F12/14</f>
+        <v>3.9285714285714293</v>
+      </c>
+      <c r="J12" s="17">
+        <f>I12-F12/14</f>
+        <v>3.5714285714285721</v>
+      </c>
+      <c r="K12" s="17">
+        <f>J12-F12/14</f>
+        <v>3.2142857142857149</v>
+      </c>
+      <c r="L12" s="17">
+        <f>K12-F12/14</f>
+        <v>2.8571428571428577</v>
+      </c>
+      <c r="M12" s="17">
+        <f>L12-F12/14</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="N12" s="17">
+        <f>M12-F12/14</f>
+        <v>2.1428571428571432</v>
+      </c>
+      <c r="O12" s="17">
+        <f>N12-F12/14</f>
+        <v>1.785714285714286</v>
+      </c>
+      <c r="P12" s="17">
+        <f>O12-F12/14</f>
+        <v>1.4285714285714288</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>P12-F12/14</f>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="R12" s="17">
+        <f>Q12-F12/14</f>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="S12" s="17">
+        <f>R12-F12/14</f>
+        <v>0.35714285714285726</v>
+      </c>
+      <c r="T12" s="17">
+        <f>S12-F12/14</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10"/>
     </row>
-    <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="26">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <f>SUM(E5:E10)</f>
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="27">
-        <v>2</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2">
-        <f>SUM(B5:B13)</f>
-        <v>16</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="2">
-        <f>SUM(E5:E13)</f>
-        <v>10</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="2">
-        <f>SUM(G5:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f>SUM(H5:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" ref="I14:T14" si="2">SUM(I5:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" ref="U11:U14" si="3">E14-SUM(G14:T14)</f>
-        <v>10</v>
-      </c>
+      <c r="G13" s="2">
+        <f>F13-SUM(G5:G10)</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13-SUM(H5:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <f>H13-SUM(I5:I10)</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <f>I13-SUM(J5:J10)</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <f>J13-SUM(K5:K10)</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <f>K13-SUM(L5:L10)</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <f>L13-SUM(M5:M10)</f>
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <f>M13-SUM(N5:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <f>N13-SUM(O5:O10)</f>
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <f>O13-SUM(P5:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>P13-SUM(Q5:Q10)</f>
+        <v>5</v>
+      </c>
+      <c r="R13" s="2">
+        <f>Q13-SUM(R5:R10)</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="2">
+        <f>R13-SUM(S5:S10)</f>
+        <v>5</v>
+      </c>
+      <c r="T13" s="2">
+        <f>S13-SUM(T5:T10)</f>
+        <v>5</v>
+      </c>
+      <c r="U13" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2">
-        <f>SUM(E5:E13)</f>
-        <v>10</v>
-      </c>
-      <c r="G15" s="17">
-        <f>F15-F15/14</f>
-        <v>9.2857142857142865</v>
-      </c>
-      <c r="H15" s="17">
-        <f>G15-F15/14</f>
-        <v>8.571428571428573</v>
-      </c>
-      <c r="I15" s="17">
-        <f>H15-F15/14</f>
-        <v>7.8571428571428585</v>
-      </c>
-      <c r="J15" s="17">
-        <f>I15-F15/14</f>
-        <v>7.1428571428571441</v>
-      </c>
-      <c r="K15" s="17">
-        <f>J15-F15/14</f>
-        <v>6.4285714285714297</v>
-      </c>
-      <c r="L15" s="17">
-        <f>K15-F15/14</f>
-        <v>5.7142857142857153</v>
-      </c>
-      <c r="M15" s="17">
-        <f>L15-F15/14</f>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="N15" s="17">
-        <f>M15-F15/14</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="O15" s="17">
-        <f>N15-F15/14</f>
-        <v>3.5714285714285721</v>
-      </c>
-      <c r="P15" s="17">
-        <f>O15-F15/14</f>
-        <v>2.8571428571428577</v>
-      </c>
-      <c r="Q15" s="17">
-        <f>P15-F15/14</f>
-        <v>2.1428571428571432</v>
-      </c>
-      <c r="R15" s="17">
-        <f>Q15-F15/14</f>
-        <v>1.4285714285714288</v>
-      </c>
-      <c r="S15" s="17">
-        <f>R15-F15/14</f>
-        <v>0.71428571428571452</v>
-      </c>
-      <c r="T15" s="17">
-        <f>S15-F15/14</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(E5:E13)</f>
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <f>F16-SUM(G5:G13)</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" ref="H16:S16" si="4">G16-SUM(H5:H13)</f>
-        <v>10</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="T16" s="2">
-        <f>S16-SUM(T5:T13)</f>
-        <v>10</v>
-      </c>
-      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2979,88 +2809,52 @@
       <c r="C19" s="16"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
+  <mergeCells count="4">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"To do"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11:U13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="491" yWindow="329" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F10">
       <formula1>"To do, In progress, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3068,18 +2862,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
-          <x14:formula1>
-            <xm:f>[1]Roster!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D7</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
           <x14:formula1>
             <xm:f>[2]Roster!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D13</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3091,7 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -434,6 +433,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,32 +455,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="0"/>
@@ -601,7 +575,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -938,11 +911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302741968"/>
-        <c:axId val="302743144"/>
+        <c:axId val="339194168"/>
+        <c:axId val="339198088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302741968"/>
+        <c:axId val="339194168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302743144"/>
+        <c:crossAx val="339198088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302743144"/>
+        <c:axId val="339198088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1071,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1157,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302741968"/>
+        <c:crossAx val="339194168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,7 +1792,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,23 +1816,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Roster"/>
-      <sheetName val="Sprint"/>
-      <sheetName val="Chart"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2255,7 +2210,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2314,7 @@
       <c r="A5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2394,8 +2349,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
@@ -2428,12 +2383,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="19">
         <v>1</v>
       </c>
@@ -2460,10 +2417,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="28">
         <v>5</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2498,8 +2455,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
@@ -2532,12 +2489,14 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="19">
         <v>1</v>
       </c>
@@ -2579,63 +2538,63 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="2">
-        <f>SUM(G5:G10)</f>
+        <f t="shared" ref="G11:T11" si="1">SUM(G5:G10)</f>
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(H5:H10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(I5:I10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(J5:J10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f>SUM(K5:K10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM(L5:L10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(M5:M10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(N5:N10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(O5:O10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM(P5:P10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f>SUM(Q5:Q10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>SUM(R5:R10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f>SUM(S5:S10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f>SUM(T5:T10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" ref="U11" si="1">E11-SUM(G11:T11)</f>
+        <f t="shared" ref="U11" si="2">E11-SUM(G11:T11)</f>
         <v>5</v>
       </c>
     </row>
@@ -2722,59 +2681,59 @@
         <v>5</v>
       </c>
       <c r="G13" s="2">
-        <f>F13-SUM(G5:G10)</f>
+        <f t="shared" ref="G13:T13" si="3">F13-SUM(G5:G10)</f>
         <v>5</v>
       </c>
       <c r="H13" s="2">
-        <f>G13-SUM(H5:H10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>H13-SUM(I5:I10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J13" s="2">
-        <f>I13-SUM(J5:J10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K13" s="2">
-        <f>J13-SUM(K5:K10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L13" s="2">
-        <f>K13-SUM(L5:L10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M13" s="2">
-        <f>L13-SUM(M5:M10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N13" s="2">
-        <f>M13-SUM(N5:N10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="O13" s="2">
-        <f>N13-SUM(O5:O10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="P13" s="2">
-        <f>O13-SUM(P5:P10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q13" s="2">
-        <f>P13-SUM(Q5:Q10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="R13" s="2">
-        <f>Q13-SUM(R5:R10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="S13" s="2">
-        <f>R13-SUM(S5:S10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T13" s="2">
-        <f>S13-SUM(T5:T10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="U13" s="10"/>
@@ -2817,7 +2776,7 @@
     <mergeCell ref="B5:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2865,7 +2824,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
           <x14:formula1>
-            <xm:f>[2]Roster!#REF!</xm:f>
+            <xm:f>Roster!$A$3:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Sprint" sheetId="1" r:id="rId2"/>
     <sheet name="Chart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -154,10 +151,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>Problems with cursor 
-when track is played</t>
-  </si>
-  <si>
     <t>Find cause</t>
   </si>
   <si>
@@ -170,7 +163,11 @@
     <t>Retesting</t>
   </si>
   <si>
-    <t>Problems with longer wav files</t>
+    <t>BUG: Problems with cursor when track is played</t>
+  </si>
+  <si>
+    <t>BUG: Problems with longer 
+wav files</t>
   </si>
 </sst>
 </file>
@@ -911,11 +908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="339194168"/>
-        <c:axId val="339198088"/>
+        <c:axId val="283724152"/>
+        <c:axId val="283728464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="339194168"/>
+        <c:axId val="283724152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339198088"/>
+        <c:crossAx val="283728464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339198088"/>
+        <c:axId val="283728464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339194168"/>
+        <c:crossAx val="283724152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,7 +1789,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,19 +1810,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Roster"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2210,7 +2194,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,13 +2296,13 @@
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="28">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>6</v>
@@ -2352,7 +2336,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>6</v>
@@ -2361,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -2386,7 +2370,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>9</v>
@@ -2417,14 +2401,14 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="28">
         <v>5</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>3</v>
@@ -2458,7 +2442,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="29"/>
       <c r="C9" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>3</v>
@@ -2467,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -2492,7 +2476,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="30"/>
       <c r="C10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>9</v>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,10 @@
   <si>
     <t>BUG: Problems with longer 
 wav files</t>
+  </si>
+  <si>
+    <t>BUG: Clicking on a remove track 
+does not stop playing file</t>
   </si>
 </sst>
 </file>
@@ -386,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,6 +416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -442,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +462,17 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -572,6 +592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -618,7 +639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint!$E$12</c:f>
+              <c:f>Sprint!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,54 +718,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint!$F$12:$T$12</c:f>
+              <c:f>Sprint!$F$15:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6428571428571432</c:v>
+                  <c:v>7.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2857142857142865</c:v>
+                  <c:v>6.8571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9285714285714293</c:v>
+                  <c:v>6.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5714285714285721</c:v>
+                  <c:v>5.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2142857142857149</c:v>
+                  <c:v>5.1428571428571441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8571428571428577</c:v>
+                  <c:v>4.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5000000000000004</c:v>
+                  <c:v>4.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1428571428571432</c:v>
+                  <c:v>3.4285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.785714285714286</c:v>
+                  <c:v>2.8571428571428594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4285714285714288</c:v>
+                  <c:v>2.2857142857142883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0714285714285716</c:v>
+                  <c:v>1.7142857142857169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71428571428571441</c:v>
+                  <c:v>1.1428571428571455</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35714285714285726</c:v>
+                  <c:v>0.57142857142857406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.6645352591003757E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint!$E$13</c:f>
+              <c:f>Sprint!$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,54 +861,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint!$F$13:$T$13</c:f>
+              <c:f>Sprint!$F$16:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,11 +929,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="283724152"/>
-        <c:axId val="283728464"/>
+        <c:axId val="290087704"/>
+        <c:axId val="290088880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283724152"/>
+        <c:axId val="290087704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283728464"/>
+        <c:crossAx val="290088880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283728464"/>
+        <c:axId val="290088880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,6 +1089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,7 +1148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283724152"/>
+        <c:crossAx val="290087704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1789,7 +1811,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,21 +2144,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2145,10 +2167,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2157,10 +2179,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2169,10 +2191,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2191,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,10 +2317,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="30">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2328,13 +2350,13 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19">
-        <f t="shared" ref="U5:U10" si="0">E5-SUM(G5:T5)</f>
+        <f t="shared" ref="U5:U13" si="0">E5-SUM(G5:T5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
@@ -2367,8 +2389,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
@@ -2396,355 +2418,441 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19">
+        <f>U6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="30">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21">
+        <f>E7-SUM(G8:T8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21">
+        <f>U9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B11" s="30">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="19" t="s">
+    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
+        <v>2</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2">
-        <f>SUM(B5:B10)</f>
+      <c r="B14" s="2">
+        <f>SUM(B5:B13)</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="2">
+        <f>SUM(E5:E13)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="2">
-        <f>SUM(E5:E10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="2">
-        <f t="shared" ref="G11:T11" si="1">SUM(G5:G10)</f>
+      <c r="F14" s="18"/>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14:T14" si="1">SUM(G5:G13)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" ref="U11" si="2">E11-SUM(G11:T11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2">
-        <f>SUM(E5:E10)</f>
-        <v>5</v>
-      </c>
-      <c r="G12" s="17">
-        <f>F12-F12/14</f>
-        <v>4.6428571428571432</v>
-      </c>
-      <c r="H12" s="17">
-        <f>G12-F12/14</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="I12" s="17">
-        <f>H12-F12/14</f>
-        <v>3.9285714285714293</v>
-      </c>
-      <c r="J12" s="17">
-        <f>I12-F12/14</f>
-        <v>3.5714285714285721</v>
-      </c>
-      <c r="K12" s="17">
-        <f>J12-F12/14</f>
-        <v>3.2142857142857149</v>
-      </c>
-      <c r="L12" s="17">
-        <f>K12-F12/14</f>
-        <v>2.8571428571428577</v>
-      </c>
-      <c r="M12" s="17">
-        <f>L12-F12/14</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="N12" s="17">
-        <f>M12-F12/14</f>
-        <v>2.1428571428571432</v>
-      </c>
-      <c r="O12" s="17">
-        <f>N12-F12/14</f>
-        <v>1.785714285714286</v>
-      </c>
-      <c r="P12" s="17">
-        <f>O12-F12/14</f>
-        <v>1.4285714285714288</v>
-      </c>
-      <c r="Q12" s="17">
-        <f>P12-F12/14</f>
-        <v>1.0714285714285716</v>
-      </c>
-      <c r="R12" s="17">
-        <f>Q12-F12/14</f>
-        <v>0.71428571428571441</v>
-      </c>
-      <c r="S12" s="17">
-        <f>R12-F12/14</f>
-        <v>0.35714285714285726</v>
-      </c>
-      <c r="T12" s="17">
-        <f>S12-F12/14</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="10"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2">
-        <f>SUM(E5:E10)</f>
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13:T13" si="3">F13-SUM(G5:G10)</f>
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="U13" s="10"/>
+      <c r="U14" s="2">
+        <f t="shared" ref="U14" si="2">E14-SUM(G14:T14)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2">
+        <f>SUM(E5:E13)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="17">
+        <f>F15-F15/14</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="H15" s="17">
+        <f>G15-F15/14</f>
+        <v>6.8571428571428577</v>
+      </c>
+      <c r="I15" s="17">
+        <f>H15-F15/14</f>
+        <v>6.2857142857142865</v>
+      </c>
+      <c r="J15" s="17">
+        <f>I15-F15/14</f>
+        <v>5.7142857142857153</v>
+      </c>
+      <c r="K15" s="17">
+        <f>J15-F15/14</f>
+        <v>5.1428571428571441</v>
+      </c>
+      <c r="L15" s="17">
+        <f>K15-F15/14</f>
+        <v>4.571428571428573</v>
+      </c>
+      <c r="M15" s="17">
+        <f>L15-F15/14</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="N15" s="17">
+        <f>M15-F15/14</f>
+        <v>3.4285714285714306</v>
+      </c>
+      <c r="O15" s="17">
+        <f>N15-F15/14</f>
+        <v>2.8571428571428594</v>
+      </c>
+      <c r="P15" s="17">
+        <f>O15-F15/14</f>
+        <v>2.2857142857142883</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>P15-F15/14</f>
+        <v>1.7142857142857169</v>
+      </c>
+      <c r="R15" s="17">
+        <f>Q15-F15/14</f>
+        <v>1.1428571428571455</v>
+      </c>
+      <c r="S15" s="17">
+        <f>R15-F15/14</f>
+        <v>0.57142857142857406</v>
+      </c>
+      <c r="T15" s="17">
+        <f>S15-F15/14</f>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="10"/>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2">
+        <f>SUM(E5:E13)</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:T16" si="3">F16-SUM(G5:G13)</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U16" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2752,52 +2860,72 @@
       <c r="C19" s="16"/>
       <c r="D19" s="10"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="U14">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="U5:U10">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F11:F13">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="U11:U13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="491" yWindow="329" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F13">
       <formula1>"To do, In progress, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2810,7 +2938,7 @@
           <x14:formula1>
             <xm:f>Roster!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>D5:D13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -462,17 +462,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="0"/>
@@ -592,7 +582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,28 +876,28 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,11 +918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290087704"/>
-        <c:axId val="290088880"/>
+        <c:axId val="297984608"/>
+        <c:axId val="297981080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290087704"/>
+        <c:axId val="297984608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290088880"/>
+        <c:crossAx val="297981080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290088880"/>
+        <c:axId val="297981080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1148,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290087704"/>
+        <c:crossAx val="297984608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +1799,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2204,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -2619,7 +2607,9 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -2629,7 +2619,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2673,7 +2663,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="1"/>
@@ -2705,7 +2695,7 @@
       </c>
       <c r="U14" s="2">
         <f t="shared" ref="U14" si="2">E14-SUM(G14:T14)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2816,35 +2806,35 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16" s="10"/>
     </row>
@@ -2888,39 +2878,39 @@
     <mergeCell ref="B8:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F10">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U10">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -918,11 +918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="297984608"/>
-        <c:axId val="297981080"/>
+        <c:axId val="287363856"/>
+        <c:axId val="287368952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297984608"/>
+        <c:axId val="287363856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297981080"/>
+        <c:crossAx val="287368952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297981080"/>
+        <c:axId val="287368952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297984608"/>
+        <c:crossAx val="287363856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,7 +2204,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2421,7 +2421,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
@@ -2454,7 +2454,9 @@
       <c r="C9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="21">
         <v>1</v>
       </c>
@@ -2941,7 +2943,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,6 +414,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -462,7 +465,32 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -888,16 +916,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287363856"/>
-        <c:axId val="287368952"/>
+        <c:axId val="278235440"/>
+        <c:axId val="278235832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287363856"/>
+        <c:axId val="278235440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287368952"/>
+        <c:crossAx val="278235832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287368952"/>
+        <c:axId val="278235832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287363856"/>
+        <c:crossAx val="278235440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +1827,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,21 +2160,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2155,10 +2183,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2167,10 +2195,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2179,10 +2207,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2232,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,10 +2333,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="31">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2343,8 +2371,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
@@ -2377,8 +2405,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
@@ -2411,10 +2439,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -2427,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -2439,18 +2467,20 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="21">
+        <v>1</v>
+      </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21">
         <f>E7-SUM(G8:T8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="21" t="s">
         <v>42</v>
       </c>
@@ -2460,8 +2490,8 @@
       <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>40</v>
+      <c r="F9" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -2473,27 +2503,31 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="21">
+        <v>1</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="21">
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -2509,16 +2543,16 @@
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="21">
-        <f>U9</f>
+      <c r="U10" s="22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2547,14 +2581,14 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
-      <c r="U11" s="19">
+      <c r="U11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
@@ -2583,14 +2617,14 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="19">
-        <f t="shared" si="0"/>
+      <c r="U12" s="22">
+        <f>U11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
@@ -2619,9 +2653,9 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="U13" s="22">
+        <f>E12-SUM(G13:T13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2681,7 +2715,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="1"/>
@@ -2697,7 +2731,7 @@
       </c>
       <c r="U14" s="2">
         <f t="shared" ref="U14" si="2">E14-SUM(G14:T14)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2824,19 +2858,19 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U16" s="10"/>
     </row>
@@ -2880,40 +2914,35 @@
     <mergeCell ref="B8:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="U5:U13">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"To do"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11:U13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="491" yWindow="329" count="1">

--- a/Documentation and designs/Sprint_info/Sprint9.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -148,16 +148,10 @@
     <t>Done</t>
   </si>
   <si>
-    <t>To do</t>
-  </si>
-  <si>
     <t>Find cause</t>
   </si>
   <si>
     <t>Resolve problem</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Retesting</t>
@@ -390,7 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,6 +408,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -465,22 +462,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="0"/>
@@ -610,6 +592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -922,10 +905,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,11 +929,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="278235440"/>
-        <c:axId val="278235832"/>
+        <c:axId val="287380816"/>
+        <c:axId val="287381208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278235440"/>
+        <c:axId val="287380816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278235832"/>
+        <c:crossAx val="287381208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278235832"/>
+        <c:axId val="287381208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,6 +1089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1164,7 +1148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278235440"/>
+        <c:crossAx val="287380816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1827,7 +1811,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,21 +2144,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2183,10 +2167,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2195,10 +2179,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2207,10 +2191,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2231,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,14 +2317,14 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="32">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>6</v>
@@ -2371,10 +2355,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>6</v>
@@ -2383,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -2397,18 +2381,20 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="S6" s="19">
+        <v>1</v>
+      </c>
       <c r="T6" s="19"/>
-      <c r="U6" s="19">
+      <c r="U6" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>9</v>
@@ -2417,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -2432,21 +2418,23 @@
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19">
-        <f>U6</f>
+      <c r="T7" s="19">
         <v>1</v>
+      </c>
+      <c r="U7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="32">
         <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>9</v>
@@ -2473,16 +2461,16 @@
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="21">
-        <f>E7-SUM(G8:T8)</f>
+      <c r="U8" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>9</v>
@@ -2509,16 +2497,16 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="21">
+      <c r="U9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>6</v>
@@ -2527,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -2541,22 +2529,24 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="S10" s="21">
+        <v>1</v>
+      </c>
       <c r="T10" s="21"/>
-      <c r="U10" s="22">
+      <c r="U10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="32">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>3</v>
@@ -2581,16 +2571,16 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
-      <c r="U11" s="22">
+      <c r="U11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>3</v>
@@ -2617,16 +2607,16 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="22">
-        <f>U11</f>
+      <c r="U12" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>9</v>
@@ -2653,9 +2643,9 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="22">
-        <f>E12-SUM(G13:T13)</f>
-        <v>1</v>
+      <c r="U13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2723,15 +2713,15 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ref="U14" si="2">E14-SUM(G14:T14)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2866,11 +2856,11 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" s="10"/>
     </row>
@@ -2914,34 +2904,34 @@
     <mergeCell ref="B8:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F10">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U13">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2971,7 +2961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
